--- a/Market Analysis/Electric Vehicle Market Analysis.xlsx
+++ b/Market Analysis/Electric Vehicle Market Analysis.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangdo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\xManagement\Market Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16416" windowHeight="5784" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="3" r:id="rId1"/>
     <sheet name="新能源汽车" sheetId="1" r:id="rId2"/>
-    <sheet name="数据来源" sheetId="2" r:id="rId3"/>
+    <sheet name="新闻" sheetId="4" r:id="rId3"/>
+    <sheet name="数据来源" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
   <si>
     <t>北京汽车</t>
   </si>
@@ -233,6 +234,27 @@
   </si>
   <si>
     <t>http://db.auto.sohu.com/byd-2007/2423/salescar.html</t>
+  </si>
+  <si>
+    <t>2017年4月7日</t>
+  </si>
+  <si>
+    <t>2016年中国新能源汽车销量同比增长53%达50.7万辆。2016-2020年新能源汽车销售复合增长最少为41%。</t>
+  </si>
+  <si>
+    <t>引用</t>
+  </si>
+  <si>
+    <t>慧博咨询</t>
+  </si>
+  <si>
+    <t>来自</t>
+  </si>
+  <si>
+    <t>雪球</t>
+  </si>
+  <si>
+    <t>内容摘要</t>
   </si>
 </sst>
 </file>
@@ -244,7 +266,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +296,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -297,19 +327,92 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -535,23 +638,35 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M25" totalsRowShown="0" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M25" totalsRowShown="0" dataDxfId="19">
   <tableColumns count="13">
-    <tableColumn id="1" name="生产厂商名称" dataDxfId="12"/>
-    <tableColumn id="2" name="品牌" dataDxfId="11"/>
-    <tableColumn id="5" name="车身" dataDxfId="10"/>
-    <tableColumn id="3" name="能源类别" dataDxfId="9"/>
-    <tableColumn id="4" name="市场售价 （万元）" dataDxfId="8"/>
-    <tableColumn id="12" name="续航里数 (KM)" dataDxfId="7"/>
-    <tableColumn id="13" name="0-100KM/h加速时间(s)" dataDxfId="6"/>
-    <tableColumn id="8" name="2015年销售" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="7" name="2016年销售" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="11" name="2016年底库存" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="9" name="2017年 （1-2月）" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="10" name="2017年2月销售" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="6" name="备注" dataDxfId="0"/>
+    <tableColumn id="1" name="生产厂商名称" dataDxfId="18"/>
+    <tableColumn id="2" name="品牌" dataDxfId="17"/>
+    <tableColumn id="5" name="车身" dataDxfId="16"/>
+    <tableColumn id="3" name="能源类别" dataDxfId="15"/>
+    <tableColumn id="4" name="市场售价 （万元）" dataDxfId="14"/>
+    <tableColumn id="12" name="续航里数 (KM)" dataDxfId="13"/>
+    <tableColumn id="13" name="0-100KM/h加速时间(s)" dataDxfId="12"/>
+    <tableColumn id="8" name="2015年销售" dataDxfId="11" dataCellStyle="Comma"/>
+    <tableColumn id="7" name="2016年销售" dataDxfId="10" dataCellStyle="Comma"/>
+    <tableColumn id="11" name="2016年底库存" dataDxfId="9" dataCellStyle="Comma"/>
+    <tableColumn id="9" name="2017年 （1-2月）" dataDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="10" name="2017年2月销售" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="6" name="备注" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D2" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <tableColumns count="4">
+    <tableColumn id="1" name="日期" dataDxfId="5"/>
+    <tableColumn id="2" name="内容摘要" dataDxfId="4"/>
+    <tableColumn id="3" name="引用" dataDxfId="3" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" name="来自" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -873,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1577,6 +1692,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Market Analysis/Electric Vehicle Market Analysis.xlsx
+++ b/Market Analysis/Electric Vehicle Market Analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16416" windowHeight="5784" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16416" windowHeight="5784" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="3" r:id="rId1"/>
@@ -116,9 +116,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>EU</t>
-  </si>
-  <si>
     <t>2016电动汽车销量排行</t>
   </si>
   <si>
@@ -255,6 +252,9 @@
   </si>
   <si>
     <t>内容摘要</t>
+  </si>
+  <si>
+    <t>EU260</t>
   </si>
 </sst>
 </file>
@@ -377,28 +377,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -412,6 +390,28 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -659,12 +659,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D2" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D3" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" name="日期" dataDxfId="5"/>
-    <tableColumn id="2" name="内容摘要" dataDxfId="4"/>
-    <tableColumn id="3" name="引用" dataDxfId="3" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" name="来自" dataDxfId="2"/>
+    <tableColumn id="1" name="日期" dataDxfId="3"/>
+    <tableColumn id="2" name="内容摘要" dataDxfId="2"/>
+    <tableColumn id="3" name="引用" dataDxfId="1" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" name="来自" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -948,27 +948,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -988,8 +988,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,25 +1028,25 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" t="s">
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
@@ -1077,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1102,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1125,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
@@ -1154,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
@@ -1185,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
@@ -1214,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -1249,7 +1252,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -1276,7 +1279,7 @@
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1284,7 +1287,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
@@ -1311,7 +1314,7 @@
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O10">
         <v>66</v>
@@ -1482,7 +1485,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>23</v>
@@ -1517,7 +1520,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>23</v>
@@ -1551,10 +1554,10 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
@@ -1582,10 +1585,10 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
@@ -1611,10 +1614,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
@@ -1634,10 +1637,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
@@ -1692,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1706,31 +1709,37 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1768,39 +1777,39 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Market Analysis/Electric Vehicle Market Analysis.xlsx
+++ b/Market Analysis/Electric Vehicle Market Analysis.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>北京汽车</t>
   </si>
@@ -53,30 +53,9 @@
     <t>Tesla</t>
   </si>
   <si>
-    <t>丰田</t>
-  </si>
-  <si>
-    <t>日产</t>
-  </si>
-  <si>
     <t>宝马</t>
   </si>
   <si>
-    <t>大众</t>
-  </si>
-  <si>
-    <t>雪佛兰</t>
-  </si>
-  <si>
-    <t>奔驰</t>
-  </si>
-  <si>
-    <t>雷克萨斯</t>
-  </si>
-  <si>
-    <t>i8</t>
-  </si>
-  <si>
     <t>混合动力</t>
   </si>
   <si>
@@ -86,9 +65,6 @@
     <t>市场售价 （万元）</t>
   </si>
   <si>
-    <t>CT</t>
-  </si>
-  <si>
     <t>i3</t>
   </si>
   <si>
@@ -255,6 +231,24 @@
   </si>
   <si>
     <t>EU260</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>华泰</t>
+  </si>
+  <si>
+    <t>XEV260</t>
+  </si>
+  <si>
+    <t>江淮</t>
+  </si>
+  <si>
+    <t>iEV6S</t>
+  </si>
+  <si>
+    <t>iEV230</t>
   </si>
 </sst>
 </file>
@@ -266,7 +260,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +298,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -327,7 +327,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -338,6 +338,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -638,7 +640,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M25" totalsRowShown="0" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M20" totalsRowShown="0" dataDxfId="19">
   <tableColumns count="13">
     <tableColumn id="1" name="生产厂商名称" dataDxfId="18"/>
     <tableColumn id="2" name="品牌" dataDxfId="17"/>
@@ -948,27 +950,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -986,13 +988,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1011,7 +1013,7 @@
     <col min="13" max="13" width="52.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1019,45 +1021,45 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="L1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1075,12 +1077,12 @@
       <c r="L2" s="3"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1100,12 +1102,12 @@
       <c r="L3" s="3"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1123,16 +1125,16 @@
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2">
         <v>30</v>
@@ -1152,16 +1154,16 @@
       </c>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2">
@@ -1183,16 +1185,16 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2">
@@ -1212,18 +1214,18 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2">
         <v>31</v>
@@ -1247,16 +1249,16 @@
       <c r="L8" s="3"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2">
         <v>100</v>
@@ -1279,19 +1281,19 @@
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2">
         <v>100</v>
@@ -1314,144 +1316,229 @@
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O10">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44</v>
+      </c>
+      <c r="F11" s="2">
+        <v>160</v>
+      </c>
+      <c r="G11" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>11024</v>
+      </c>
+      <c r="I11" s="3">
+        <v>7625</v>
+      </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="K11" s="3">
+        <v>4504</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2">
+        <v>203</v>
+      </c>
+      <c r="G12" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1273</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1916</v>
+      </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E13" s="2">
-        <v>170</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="F13" s="2">
+        <v>352</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2888</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2287</v>
+      </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3">
+        <v>73</v>
+      </c>
       <c r="L13" s="3"/>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2">
-        <v>30</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3">
-        <v>11024</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F14" s="2">
+        <v>253</v>
+      </c>
+      <c r="G14" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3">
-        <v>7625</v>
+        <v>17181</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3">
-        <v>4504</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="F15" s="2">
+        <v>200</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="3">
+        <v>15467</v>
+      </c>
+      <c r="I15" s="3">
+        <v>16417</v>
+      </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="3">
+        <v>569</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1525</v>
+      </c>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="2">
+        <v>160</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3">
+        <v>1142</v>
+      </c>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="F17" s="2">
+        <v>200</v>
+      </c>
+      <c r="G17" s="2">
+        <v>12</v>
+      </c>
+      <c r="H17" s="3">
+        <v>7262</v>
+      </c>
+      <c r="I17" s="3">
+        <v>16017</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1459,19 +1546,21 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2">
-        <v>28</v>
-      </c>
-      <c r="F18" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="F18" s="2">
+        <v>266</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1481,209 +1570,70 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="8">
+        <v>22</v>
+      </c>
+      <c r="F19" s="8">
+        <v>230</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="8">
         <v>21</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="2">
-        <v>25</v>
-      </c>
-      <c r="F19" s="2">
-        <v>203</v>
-      </c>
-      <c r="G19" s="2">
-        <v>10.7</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1273</v>
-      </c>
-      <c r="I19" s="3">
-        <v>1916</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="2">
-        <v>40</v>
-      </c>
-      <c r="F20" s="2">
-        <v>352</v>
-      </c>
-      <c r="G20" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2888</v>
-      </c>
-      <c r="I20" s="3">
-        <v>2287</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3">
-        <v>73</v>
-      </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="2">
-        <v>24</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="F20" s="8">
         <v>253</v>
       </c>
-      <c r="G21" s="2">
-        <v>9.9</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3">
-        <v>17181</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3">
-        <v>15467</v>
-      </c>
-      <c r="I22" s="3">
-        <v>16417</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3">
-        <v>569</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1525</v>
-      </c>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3">
-        <v>1142</v>
-      </c>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="3">
-        <v>7262</v>
-      </c>
-      <c r="I24" s="3">
-        <v>16017</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="2"/>
+      <c r="G20" s="8">
+        <v>12</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9">
+        <v>2599</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D20">
       <formula1>",纯电动, 混合动力, 燃料电池, 其他"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" display="腾势"/>
-    <hyperlink ref="B21" r:id="rId2" location="page=9"/>
+    <hyperlink ref="B13" r:id="rId1" display="腾势"/>
+    <hyperlink ref="B14" r:id="rId2" location="page=9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1709,30 +1659,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1777,39 +1727,39 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
